--- a/week-08/Recipes.xlsx
+++ b/week-08/Recipes.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/week-08/Recipes.xlsx
+++ b/week-08/Recipes.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/week-08/Recipes.xlsx
+++ b/week-08/Recipes.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
